--- a/main/carla_runs/results.xlsx
+++ b/main/carla_runs/results.xlsx
@@ -475,19 +475,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.05867761641602</v>
+        <v>2.597419775019497</v>
       </c>
       <c r="D2" t="n">
-        <v>2.5</v>
+        <v>17.75</v>
       </c>
       <c r="E2" t="n">
-        <v>1.730057634226477</v>
+        <v>12.93879281845967</v>
       </c>
       <c r="F2" t="n">
-        <v>1.667280800219123</v>
+        <v>12.7541939361204</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9518261252065576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +500,19 @@
         <v>0.99</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1713386880204677</v>
+        <v>1.057060508177166</v>
       </c>
       <c r="D3" t="n">
-        <v>1.191919191919192</v>
+        <v>5.161616161616162</v>
       </c>
       <c r="E3" t="n">
-        <v>0.197593986139058</v>
+        <v>2.199146899475081</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1830084839982939</v>
+        <v>2.163708741019674</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1684071368384692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +525,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07906158047938645</v>
+        <v>0.1270085289020096</v>
       </c>
       <c r="D4" t="n">
-        <v>1.09</v>
+        <v>9.06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08445402331247004</v>
+        <v>0.2420452041110067</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06138967062101526</v>
+        <v>0.06782578315039454</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07850434620751935</v>
+        <v>0.1025827849439245</v>
       </c>
     </row>
   </sheetData>
